--- a/최종_그룹_배정_결과.xlsx
+++ b/최종_그룹_배정_결과.xlsx
@@ -1222,25 +1222,25 @@
     <t>하승민</t>
   </si>
   <si>
+    <t>임승민</t>
+  </si>
+  <si>
+    <t>최서현</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>박지인</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
     <t>정유빈</t>
   </si>
   <si>
-    <t>최서현</t>
-  </si>
-  <si>
-    <t>김도연</t>
-  </si>
-  <si>
-    <t>임승민</t>
-  </si>
-  <si>
     <t>김민지</t>
-  </si>
-  <si>
-    <t>박지인</t>
-  </si>
-  <si>
-    <t>김혜원</t>
   </si>
   <si>
     <t>강성미</t>
@@ -2195,46 +2195,46 @@
     <t>110301하승민</t>
   </si>
   <si>
+    <t>102261임승민</t>
+  </si>
+  <si>
+    <t>106291최서현</t>
+  </si>
+  <si>
+    <t>101042김혜원</t>
+  </si>
+  <si>
+    <t>110082박지인</t>
+  </si>
+  <si>
+    <t>105072김혜원</t>
+  </si>
+  <si>
+    <t>105092박지인</t>
+  </si>
+  <si>
+    <t>104161김도연</t>
+  </si>
+  <si>
+    <t>108291최서현</t>
+  </si>
+  <si>
+    <t>106032김도연</t>
+  </si>
+  <si>
+    <t>109291임승민</t>
+  </si>
+  <si>
+    <t>106102정유빈</t>
+  </si>
+  <si>
+    <t>108302김민지</t>
+  </si>
+  <si>
+    <t>101032김민지</t>
+  </si>
+  <si>
     <t>104112정유빈</t>
-  </si>
-  <si>
-    <t>108291최서현</t>
-  </si>
-  <si>
-    <t>104161김도연</t>
-  </si>
-  <si>
-    <t>109291임승민</t>
-  </si>
-  <si>
-    <t>106032김도연</t>
-  </si>
-  <si>
-    <t>106102정유빈</t>
-  </si>
-  <si>
-    <t>102261임승민</t>
-  </si>
-  <si>
-    <t>108302김민지</t>
-  </si>
-  <si>
-    <t>106291최서현</t>
-  </si>
-  <si>
-    <t>110082박지인</t>
-  </si>
-  <si>
-    <t>101032김민지</t>
-  </si>
-  <si>
-    <t>105072김혜원</t>
-  </si>
-  <si>
-    <t>101042김혜원</t>
-  </si>
-  <si>
-    <t>105092박지인</t>
   </si>
   <si>
     <t>101012강성미</t>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="CM11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CN11" t="b">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="CM12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CN12" t="b">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="CM26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CN26" t="b">
         <v>0</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="CM47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CN47" t="b">
         <v>0</v>
@@ -14485,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="CM53">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CN53" t="b">
         <v>0</v>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="CM67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CN67" t="b">
         <v>0</v>
@@ -21357,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="CM84">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="CN84" t="b">
         <v>0</v>
@@ -32667,7 +32667,7 @@
         <v>0</v>
       </c>
       <c r="CM135">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="CN135" t="b">
         <v>0</v>
@@ -45721,7 +45721,7 @@
         <v>0</v>
       </c>
       <c r="CM194">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CN194" t="b">
         <v>0</v>
@@ -46157,7 +46157,7 @@
         <v>0</v>
       </c>
       <c r="CM196">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CN196" t="b">
         <v>0</v>
@@ -49911,7 +49911,7 @@
         <v>0</v>
       </c>
       <c r="CM213">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="CN213" t="b">
         <v>0</v>
@@ -54555,7 +54555,7 @@
         <v>0</v>
       </c>
       <c r="CM234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CN234" t="b">
         <v>0</v>
@@ -55887,7 +55887,7 @@
         <v>0</v>
       </c>
       <c r="CM240">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CN240" t="b">
         <v>0</v>
@@ -62708,7 +62708,7 @@
         <v>0</v>
       </c>
       <c r="CM271">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CN271" t="b">
         <v>0</v>
@@ -62926,7 +62926,7 @@
         <v>0</v>
       </c>
       <c r="CM272">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="CN272" t="b">
         <v>0</v>
@@ -64255,7 +64255,7 @@
         <v>0</v>
       </c>
       <c r="CM278">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CN278" t="b">
         <v>0</v>
@@ -64266,13 +64266,13 @@
         <v>92</v>
       </c>
       <c r="B279" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C279" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D279" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E279" t="s">
         <v>402</v>
@@ -64284,76 +64284,76 @@
         <v>739</v>
       </c>
       <c r="I279">
-        <v>10411</v>
+        <v>10226</v>
       </c>
       <c r="J279">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K279" t="s">
         <v>402</v>
       </c>
       <c r="N279">
+        <v>70</v>
+      </c>
+      <c r="O279">
+        <v>97.7</v>
+      </c>
+      <c r="P279" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q279">
         <v>64</v>
       </c>
-      <c r="O279">
+      <c r="R279">
         <v>91.90000000000001</v>
       </c>
-      <c r="P279" t="s">
+      <c r="S279" t="s">
         <v>741</v>
       </c>
-      <c r="Q279">
-        <v>60</v>
-      </c>
-      <c r="R279">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="S279" t="s">
+      <c r="T279">
+        <v>59</v>
+      </c>
+      <c r="U279">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="V279" t="s">
         <v>742</v>
       </c>
-      <c r="T279">
-        <v>49</v>
-      </c>
-      <c r="U279">
-        <v>46</v>
-      </c>
-      <c r="V279" t="s">
+      <c r="W279">
+        <v>77</v>
+      </c>
+      <c r="X279">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z279">
+        <v>56</v>
+      </c>
+      <c r="AA279">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC279">
+        <v>53</v>
+      </c>
+      <c r="AD279">
+        <v>61.8</v>
+      </c>
+      <c r="AE279" t="s">
         <v>744</v>
       </c>
-      <c r="W279">
-        <v>61</v>
-      </c>
-      <c r="X279">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="Y279" t="s">
-        <v>742</v>
-      </c>
-      <c r="Z279">
-        <v>40</v>
-      </c>
-      <c r="AA279">
-        <v>15.9</v>
-      </c>
-      <c r="AB279" t="s">
-        <v>743</v>
-      </c>
-      <c r="AC279">
-        <v>44</v>
-      </c>
-      <c r="AD279">
-        <v>27.4</v>
-      </c>
-      <c r="AE279" t="s">
-        <v>743</v>
-      </c>
       <c r="AF279">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="AG279">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="AH279">
-        <v>52.4</v>
+        <v>90.5</v>
       </c>
       <c r="AK279">
         <v>0</v>
@@ -64368,76 +64368,73 @@
         <v>748</v>
       </c>
       <c r="AO279">
-        <v>84.5</v>
+        <v>59.5</v>
       </c>
       <c r="AP279">
-        <v>45.6</v>
+        <v>47.2</v>
       </c>
       <c r="AQ279">
-        <v>58.1</v>
+        <v>49.4</v>
       </c>
       <c r="AR279">
-        <v>49.8</v>
+        <v>46.9</v>
       </c>
       <c r="AS279">
-        <v>37</v>
+        <v>40.2</v>
       </c>
       <c r="AT279">
-        <v>73.5</v>
+        <v>58.3</v>
       </c>
       <c r="AU279">
-        <v>85.40000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="AV279">
-        <v>70.40000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="AW279">
-        <v>52.5</v>
+        <v>48.7</v>
       </c>
       <c r="AX279">
-        <v>49.8</v>
+        <v>51.8</v>
       </c>
       <c r="AY279">
-        <v>36.1</v>
+        <v>42.3</v>
       </c>
       <c r="AZ279">
-        <v>59.8</v>
+        <v>50.6</v>
       </c>
       <c r="BA279">
-        <v>58.4</v>
+        <v>56.1</v>
       </c>
       <c r="BB279">
-        <v>50.9</v>
+        <v>42.1</v>
       </c>
       <c r="BC279">
-        <v>48.4</v>
+        <v>54.1</v>
       </c>
       <c r="BD279">
-        <v>39.4</v>
+        <v>43.1</v>
       </c>
       <c r="BE279">
-        <v>62.8</v>
+        <v>44.6</v>
       </c>
       <c r="BF279">
         <v>43.7</v>
       </c>
       <c r="BG279">
-        <v>37.6</v>
+        <v>47.6</v>
       </c>
       <c r="BH279">
-        <v>36.5</v>
+        <v>51.6</v>
       </c>
       <c r="BI279">
-        <v>54.5</v>
+        <v>45.9</v>
       </c>
       <c r="BJ279">
-        <v>49.2</v>
+        <v>43.9</v>
       </c>
       <c r="BK279">
-        <v>36.3</v>
-      </c>
-      <c r="BL279" t="s">
-        <v>749</v>
+        <v>51.3</v>
       </c>
       <c r="BO279" t="s">
         <v>749</v>
@@ -64479,10 +64476,10 @@
         <v>1</v>
       </c>
       <c r="CL279">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="CM279">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN279" t="b">
         <v>1</v>
@@ -64493,7 +64490,7 @@
         <v>92</v>
       </c>
       <c r="B280" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C280" t="s">
         <v>122</v>
@@ -64511,7 +64508,7 @@
         <v>739</v>
       </c>
       <c r="I280">
-        <v>10829</v>
+        <v>10629</v>
       </c>
       <c r="J280">
         <v>1</v>
@@ -64520,67 +64517,67 @@
         <v>403</v>
       </c>
       <c r="N280">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="O280">
-        <v>94.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="P280" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Q280">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R280">
-        <v>84.09999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="S280" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="T280">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U280">
-        <v>72.59999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="V280" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="W280">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X280">
-        <v>75.8</v>
+        <v>61.8</v>
       </c>
       <c r="Y280" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Z280">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AA280">
-        <v>81.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="AB280" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AC280">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AD280">
-        <v>98.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AE280" t="s">
         <v>740</v>
       </c>
       <c r="AF280">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AG280">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="AH280">
-        <v>88.3</v>
+        <v>75.5</v>
       </c>
       <c r="AK280">
         <v>0</v>
@@ -64595,97 +64592,100 @@
         <v>748</v>
       </c>
       <c r="AO280">
-        <v>59.5</v>
+        <v>57.7</v>
       </c>
       <c r="AP280">
-        <v>58.4</v>
+        <v>44</v>
       </c>
       <c r="AQ280">
-        <v>33</v>
+        <v>46.6</v>
       </c>
       <c r="AR280">
-        <v>61.6</v>
+        <v>45.4</v>
       </c>
       <c r="AS280">
-        <v>48.7</v>
+        <v>43</v>
       </c>
       <c r="AT280">
-        <v>54</v>
+        <v>60.5</v>
       </c>
       <c r="AU280">
-        <v>77.09999999999999</v>
+        <v>52.1</v>
       </c>
       <c r="AV280">
-        <v>42.2</v>
+        <v>55.4</v>
       </c>
       <c r="AW280">
-        <v>62</v>
+        <v>50.6</v>
       </c>
       <c r="AX280">
-        <v>39.9</v>
+        <v>37.9</v>
       </c>
       <c r="AY280">
-        <v>69.2</v>
+        <v>46.5</v>
       </c>
       <c r="AZ280">
-        <v>57.5</v>
+        <v>50.6</v>
       </c>
       <c r="BA280">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="BB280">
-        <v>28.9</v>
+        <v>46.5</v>
       </c>
       <c r="BC280">
-        <v>50.3</v>
+        <v>48.4</v>
       </c>
       <c r="BD280">
-        <v>61.6</v>
+        <v>43.1</v>
       </c>
       <c r="BE280">
-        <v>68.90000000000001</v>
+        <v>46.6</v>
       </c>
       <c r="BF280">
-        <v>67</v>
+        <v>51.5</v>
       </c>
       <c r="BG280">
-        <v>45.9</v>
+        <v>49.3</v>
       </c>
       <c r="BH280">
-        <v>62.8</v>
+        <v>47.8</v>
       </c>
       <c r="BI280">
         <v>52.8</v>
       </c>
       <c r="BJ280">
-        <v>54.5</v>
+        <v>47.4</v>
       </c>
       <c r="BK280">
-        <v>56.4</v>
+        <v>43</v>
+      </c>
+      <c r="BO280" t="s">
+        <v>749</v>
       </c>
       <c r="BZ280">
-        <v>39.8</v>
+        <v>55.6</v>
       </c>
       <c r="CA280">
-        <v>53.8</v>
+        <v>57.1</v>
       </c>
       <c r="CB280">
-        <v>51.8</v>
+        <v>36</v>
       </c>
       <c r="CC280">
-        <v>64.7</v>
+        <v>41.3</v>
       </c>
       <c r="CD280">
-        <v>36.5</v>
+        <v>45.3</v>
       </c>
       <c r="CE280">
-        <v>44.4</v>
+        <v>58.7</v>
       </c>
       <c r="CF280">
-        <v>42.9</v>
+        <v>49.6</v>
       </c>
       <c r="CG280">
-        <v>42.5</v>
+        <v>61.6</v>
       </c>
       <c r="CH280" t="s">
         <v>750</v>
@@ -64703,7 +64703,7 @@
         <v>172</v>
       </c>
       <c r="CM280">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="CN280" t="b">
         <v>1</v>
@@ -64714,13 +64714,13 @@
         <v>92</v>
       </c>
       <c r="B281" t="s">
+        <v>93</v>
+      </c>
+      <c r="C281" t="s">
         <v>96</v>
       </c>
-      <c r="C281" t="s">
-        <v>108</v>
-      </c>
       <c r="D281" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E281" t="s">
         <v>404</v>
@@ -64732,76 +64732,76 @@
         <v>739</v>
       </c>
       <c r="I281">
-        <v>10416</v>
+        <v>10104</v>
       </c>
       <c r="J281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K281" t="s">
         <v>404</v>
       </c>
       <c r="N281">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="O281">
-        <v>98.3</v>
+        <v>65.5</v>
       </c>
       <c r="P281" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="Q281">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="R281">
-        <v>84.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="S281" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T281">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="U281">
-        <v>88.5</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="V281" t="s">
         <v>742</v>
       </c>
       <c r="W281">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="X281">
-        <v>97.09999999999999</v>
+        <v>61.8</v>
       </c>
       <c r="Y281" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="Z281">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="AA281">
-        <v>98.90000000000001</v>
+        <v>50</v>
       </c>
       <c r="AB281" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="AC281">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="AD281">
-        <v>94.5</v>
+        <v>38.2</v>
       </c>
       <c r="AE281" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AF281">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="AG281">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="AH281">
-        <v>96</v>
+        <v>57.5</v>
       </c>
       <c r="AK281">
         <v>0</v>
@@ -64816,76 +64816,73 @@
         <v>748</v>
       </c>
       <c r="AO281">
-        <v>52.4</v>
+        <v>66.7</v>
       </c>
       <c r="AP281">
-        <v>64.7</v>
+        <v>72.7</v>
       </c>
       <c r="AQ281">
-        <v>60.1</v>
+        <v>52.3</v>
       </c>
       <c r="AR281">
-        <v>60.1</v>
+        <v>49.1</v>
       </c>
       <c r="AS281">
-        <v>34.5</v>
+        <v>53.6</v>
       </c>
       <c r="AT281">
         <v>54</v>
       </c>
       <c r="AU281">
-        <v>64.59999999999999</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="AV281">
-        <v>38.4</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="AW281">
-        <v>67.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="AX281">
-        <v>47.8</v>
+        <v>73.7</v>
       </c>
       <c r="AY281">
-        <v>71.3</v>
+        <v>56.8</v>
       </c>
       <c r="AZ281">
-        <v>59.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="BA281">
-        <v>60.6</v>
+        <v>42.8</v>
       </c>
       <c r="BB281">
-        <v>53.1</v>
+        <v>48.7</v>
       </c>
       <c r="BC281">
-        <v>63.5</v>
+        <v>42.7</v>
       </c>
       <c r="BD281">
-        <v>57.9</v>
+        <v>46.8</v>
       </c>
       <c r="BE281">
-        <v>54.7</v>
+        <v>58.8</v>
       </c>
       <c r="BF281">
-        <v>40.6</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="BG281">
-        <v>35.9</v>
+        <v>49.3</v>
       </c>
       <c r="BH281">
-        <v>44</v>
+        <v>70.3</v>
       </c>
       <c r="BI281">
-        <v>40.8</v>
+        <v>61.4</v>
       </c>
       <c r="BJ281">
-        <v>49.2</v>
+        <v>59.7</v>
       </c>
       <c r="BK281">
-        <v>46.3</v>
-      </c>
-      <c r="BQ281" t="s">
-        <v>749</v>
+        <v>58</v>
       </c>
       <c r="BZ281">
         <v>39.8</v>
@@ -64924,7 +64921,7 @@
         <v>1</v>
       </c>
       <c r="CL281">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="CM281">
         <v>8</v>
@@ -64938,13 +64935,13 @@
         <v>92</v>
       </c>
       <c r="B282" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C282" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D282" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E282" t="s">
         <v>405</v>
@@ -64956,79 +64953,79 @@
         <v>739</v>
       </c>
       <c r="I282">
-        <v>10929</v>
+        <v>11008</v>
       </c>
       <c r="J282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K282" t="s">
         <v>405</v>
       </c>
       <c r="N282">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="O282">
-        <v>98.3</v>
+        <v>50</v>
       </c>
       <c r="P282" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="Q282">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="R282">
-        <v>99.59999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="S282" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="T282">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="U282">
-        <v>94.5</v>
+        <v>57.9</v>
       </c>
       <c r="V282" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="W282">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="X282">
-        <v>86.40000000000001</v>
+        <v>21.2</v>
       </c>
       <c r="Y282" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Z282">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="AA282">
-        <v>97.7</v>
+        <v>61.8</v>
       </c>
       <c r="AB282" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="AC282">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AD282">
-        <v>86.40000000000001</v>
+        <v>61.8</v>
       </c>
       <c r="AE282" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AF282">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AG282">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="AH282">
-        <v>97</v>
+        <v>42.5</v>
       </c>
       <c r="AK282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL282" t="s">
         <v>741</v>
@@ -65040,103 +65037,100 @@
         <v>748</v>
       </c>
       <c r="AO282">
-        <v>20.2</v>
+        <v>51.5</v>
       </c>
       <c r="AP282">
-        <v>28.9</v>
+        <v>53.6</v>
       </c>
       <c r="AQ282">
-        <v>31.1</v>
+        <v>55.2</v>
       </c>
       <c r="AR282">
-        <v>36.6</v>
+        <v>47.6</v>
       </c>
       <c r="AS282">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT282">
-        <v>25.7</v>
+        <v>49.6</v>
       </c>
       <c r="AU282">
-        <v>27.1</v>
+        <v>54.1</v>
       </c>
       <c r="AV282">
-        <v>29</v>
+        <v>49.7</v>
       </c>
       <c r="AW282">
-        <v>33.6</v>
+        <v>54.4</v>
       </c>
       <c r="AX282">
-        <v>31.9</v>
+        <v>55.8</v>
       </c>
       <c r="AY282">
-        <v>32</v>
+        <v>48.5</v>
       </c>
       <c r="AZ282">
-        <v>32.2</v>
+        <v>55.2</v>
       </c>
       <c r="BA282">
-        <v>29.4</v>
+        <v>56.1</v>
       </c>
       <c r="BB282">
-        <v>44.3</v>
+        <v>50.9</v>
       </c>
       <c r="BC282">
-        <v>38.9</v>
+        <v>48.4</v>
       </c>
       <c r="BD282">
-        <v>39.4</v>
+        <v>48.7</v>
       </c>
       <c r="BE282">
-        <v>36.5</v>
+        <v>46.6</v>
       </c>
       <c r="BF282">
-        <v>48.4</v>
+        <v>54.6</v>
       </c>
       <c r="BG282">
-        <v>39.3</v>
+        <v>47.6</v>
       </c>
       <c r="BH282">
-        <v>55.3</v>
+        <v>51.6</v>
       </c>
       <c r="BI282">
-        <v>54.5</v>
+        <v>47.6</v>
       </c>
       <c r="BJ282">
-        <v>52.7</v>
+        <v>61.5</v>
       </c>
       <c r="BK282">
-        <v>49.7</v>
-      </c>
-      <c r="BM282" t="s">
-        <v>749</v>
+        <v>51.3</v>
       </c>
       <c r="BZ282">
-        <v>55.6</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="CA282">
-        <v>57.1</v>
+        <v>50.5</v>
       </c>
       <c r="CB282">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="CC282">
-        <v>41.3</v>
+        <v>43.4</v>
       </c>
       <c r="CD282">
-        <v>45.3</v>
+        <v>56.3</v>
       </c>
       <c r="CE282">
-        <v>58.7</v>
+        <v>71</v>
       </c>
       <c r="CF282">
-        <v>49.6</v>
+        <v>45.1</v>
       </c>
       <c r="CG282">
-        <v>61.6</v>
+        <v>59.7</v>
       </c>
       <c r="CH282" t="s">
-        <v>92</v>
+        <v>750</v>
       </c>
       <c r="CI282" t="s">
         <v>751</v>
@@ -65148,10 +65142,10 @@
         <v>1</v>
       </c>
       <c r="CL282">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="CM282">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CN282" t="b">
         <v>1</v>
@@ -65162,10 +65156,10 @@
         <v>92</v>
       </c>
       <c r="B283" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C283" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D283" t="s">
         <v>124</v>
@@ -65173,6 +65167,9 @@
       <c r="E283" t="s">
         <v>404</v>
       </c>
+      <c r="F283" t="s">
+        <v>444</v>
+      </c>
       <c r="G283" t="s">
         <v>727</v>
       </c>
@@ -65180,7 +65177,7 @@
         <v>739</v>
       </c>
       <c r="I283">
-        <v>10603</v>
+        <v>10507</v>
       </c>
       <c r="J283">
         <v>2</v>
@@ -65189,67 +65186,67 @@
         <v>404</v>
       </c>
       <c r="N283">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="O283">
-        <v>30.9</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="P283" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="Q283">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="R283">
-        <v>13.6</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="S283" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="T283">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="U283">
-        <v>46</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="V283" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="W283">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="X283">
-        <v>38.2</v>
+        <v>93.3</v>
       </c>
       <c r="Y283" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="Z283">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AA283">
-        <v>38.2</v>
+        <v>61.8</v>
       </c>
       <c r="AB283" t="s">
         <v>744</v>
       </c>
       <c r="AC283">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AD283">
-        <v>18.4</v>
+        <v>50</v>
       </c>
       <c r="AE283" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF283">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AG283">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="AH283">
-        <v>14.5</v>
+        <v>75.5</v>
       </c>
       <c r="AK283">
         <v>0</v>
@@ -65264,97 +65261,97 @@
         <v>748</v>
       </c>
       <c r="AO283">
-        <v>64</v>
+        <v>48.8</v>
       </c>
       <c r="AP283">
-        <v>45.6</v>
+        <v>48</v>
       </c>
       <c r="AQ283">
-        <v>41.7</v>
+        <v>48.5</v>
       </c>
       <c r="AR283">
-        <v>35.1</v>
+        <v>46.1</v>
       </c>
       <c r="AS283">
-        <v>47.3</v>
+        <v>49.1</v>
       </c>
       <c r="AT283">
-        <v>69.2</v>
+        <v>43.1</v>
       </c>
       <c r="AU283">
         <v>52.1</v>
       </c>
       <c r="AV283">
-        <v>61</v>
+        <v>51.6</v>
       </c>
       <c r="AW283">
-        <v>56.3</v>
+        <v>46.8</v>
       </c>
       <c r="AX283">
-        <v>41.9</v>
+        <v>55.8</v>
       </c>
       <c r="AY283">
-        <v>40.3</v>
+        <v>42.3</v>
       </c>
       <c r="AZ283">
-        <v>46</v>
+        <v>52.9</v>
       </c>
       <c r="BA283">
-        <v>45</v>
+        <v>49.5</v>
       </c>
       <c r="BB283">
-        <v>39.9</v>
+        <v>44.3</v>
       </c>
       <c r="BC283">
-        <v>46.5</v>
+        <v>50.3</v>
       </c>
       <c r="BD283">
-        <v>30.2</v>
+        <v>41.3</v>
       </c>
       <c r="BE283">
-        <v>34.5</v>
+        <v>48.6</v>
       </c>
       <c r="BF283">
-        <v>46.8</v>
+        <v>59.2</v>
       </c>
       <c r="BG283">
-        <v>62.6</v>
+        <v>54.3</v>
       </c>
       <c r="BH283">
-        <v>47.8</v>
+        <v>60.9</v>
       </c>
       <c r="BI283">
-        <v>64.8</v>
+        <v>56.2</v>
       </c>
       <c r="BJ283">
-        <v>38.6</v>
+        <v>66.8</v>
       </c>
       <c r="BK283">
-        <v>48</v>
+        <v>59.7</v>
       </c>
       <c r="BZ283">
-        <v>42.4</v>
+        <v>39.8</v>
       </c>
       <c r="CA283">
-        <v>40.6</v>
+        <v>53.8</v>
       </c>
       <c r="CB283">
-        <v>41.3</v>
+        <v>51.8</v>
       </c>
       <c r="CC283">
-        <v>49.8</v>
+        <v>64.7</v>
       </c>
       <c r="CD283">
-        <v>51.9</v>
+        <v>36.5</v>
       </c>
       <c r="CE283">
-        <v>54.6</v>
+        <v>44.4</v>
       </c>
       <c r="CF283">
-        <v>60.9</v>
+        <v>42.9</v>
       </c>
       <c r="CG283">
-        <v>55.9</v>
+        <v>42.5</v>
       </c>
       <c r="CH283" t="s">
         <v>750</v>
@@ -65369,10 +65366,10 @@
         <v>1</v>
       </c>
       <c r="CL283">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="CM283">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CN283" t="b">
         <v>1</v>
@@ -65383,16 +65380,16 @@
         <v>92</v>
       </c>
       <c r="B284" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C284" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D284" t="s">
         <v>124</v>
       </c>
       <c r="E284" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G284" t="s">
         <v>728</v>
@@ -65401,58 +65398,58 @@
         <v>739</v>
       </c>
       <c r="I284">
-        <v>10610</v>
+        <v>10509</v>
       </c>
       <c r="J284">
         <v>2</v>
       </c>
       <c r="K284" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N284">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O284">
-        <v>97.7</v>
+        <v>50</v>
       </c>
       <c r="P284" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="Q284">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R284">
-        <v>91.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="S284" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T284">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="U284">
-        <v>98.59999999999999</v>
+        <v>46</v>
       </c>
       <c r="V284" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="W284">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="X284">
-        <v>97.09999999999999</v>
+        <v>61.8</v>
       </c>
       <c r="Y284" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="Z284">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="AA284">
-        <v>93.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB284" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="AC284">
         <v>44</v>
@@ -65464,13 +65461,13 @@
         <v>743</v>
       </c>
       <c r="AF284">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AG284">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="AH284">
-        <v>92.5</v>
+        <v>30.8</v>
       </c>
       <c r="AK284">
         <v>0</v>
@@ -65485,103 +65482,97 @@
         <v>748</v>
       </c>
       <c r="AO284">
-        <v>40.8</v>
+        <v>50.6</v>
       </c>
       <c r="AP284">
-        <v>60.8</v>
+        <v>52</v>
       </c>
       <c r="AQ284">
-        <v>62</v>
+        <v>56.2</v>
       </c>
       <c r="AR284">
-        <v>63</v>
+        <v>40.3</v>
       </c>
       <c r="AS284">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="AT284">
-        <v>56.1</v>
+        <v>62.7</v>
       </c>
       <c r="AU284">
-        <v>43.7</v>
+        <v>52.1</v>
       </c>
       <c r="AV284">
-        <v>30.9</v>
+        <v>38.4</v>
       </c>
       <c r="AW284">
-        <v>48.7</v>
+        <v>46.8</v>
       </c>
       <c r="AX284">
-        <v>73.7</v>
+        <v>67.7</v>
       </c>
       <c r="AY284">
-        <v>54.7</v>
+        <v>40.3</v>
       </c>
       <c r="AZ284">
-        <v>69</v>
+        <v>62.1</v>
       </c>
       <c r="BA284">
-        <v>49.5</v>
+        <v>58.4</v>
       </c>
       <c r="BB284">
-        <v>59.7</v>
+        <v>44.3</v>
       </c>
       <c r="BC284">
-        <v>46.5</v>
+        <v>37</v>
       </c>
       <c r="BD284">
-        <v>69</v>
+        <v>41.3</v>
       </c>
       <c r="BE284">
-        <v>68.90000000000001</v>
+        <v>46.6</v>
       </c>
       <c r="BF284">
-        <v>59.2</v>
+        <v>49.9</v>
       </c>
       <c r="BG284">
-        <v>32.6</v>
+        <v>37.6</v>
       </c>
       <c r="BH284">
-        <v>60.9</v>
+        <v>42.2</v>
       </c>
       <c r="BI284">
-        <v>30.4</v>
+        <v>49.4</v>
       </c>
       <c r="BJ284">
-        <v>80.90000000000001</v>
+        <v>49.2</v>
       </c>
       <c r="BK284">
-        <v>68</v>
-      </c>
-      <c r="BN284" t="s">
-        <v>749</v>
-      </c>
-      <c r="BQ284" t="s">
-        <v>749</v>
+        <v>38</v>
       </c>
       <c r="BZ284">
-        <v>66.09999999999999</v>
+        <v>55.6</v>
       </c>
       <c r="CA284">
-        <v>50.5</v>
+        <v>57.1</v>
       </c>
       <c r="CB284">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="CC284">
-        <v>43.4</v>
+        <v>41.3</v>
       </c>
       <c r="CD284">
-        <v>56.3</v>
+        <v>45.3</v>
       </c>
       <c r="CE284">
-        <v>71</v>
+        <v>58.7</v>
       </c>
       <c r="CF284">
-        <v>45.1</v>
+        <v>49.6</v>
       </c>
       <c r="CG284">
-        <v>59.7</v>
+        <v>61.6</v>
       </c>
       <c r="CH284" t="s">
         <v>750</v>
@@ -65596,10 +65587,10 @@
         <v>1</v>
       </c>
       <c r="CL284">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="CM284">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CN284" t="b">
         <v>1</v>
@@ -65610,16 +65601,16 @@
         <v>92</v>
       </c>
       <c r="B285" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C285" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D285" t="s">
         <v>92</v>
       </c>
       <c r="E285" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G285" t="s">
         <v>729</v>
@@ -65628,76 +65619,76 @@
         <v>739</v>
       </c>
       <c r="I285">
-        <v>10226</v>
+        <v>10416</v>
       </c>
       <c r="J285">
         <v>1</v>
       </c>
       <c r="K285" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N285">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O285">
-        <v>97.7</v>
+        <v>98.3</v>
       </c>
       <c r="P285" t="s">
         <v>740</v>
       </c>
       <c r="Q285">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R285">
-        <v>91.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="S285" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="T285">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="U285">
-        <v>81.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="V285" t="s">
         <v>742</v>
       </c>
       <c r="W285">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="X285">
-        <v>99.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Y285" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z285">
+        <v>73</v>
+      </c>
+      <c r="AA285">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AB285" t="s">
         <v>740</v>
       </c>
-      <c r="Z285">
-        <v>56</v>
-      </c>
-      <c r="AA285">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="AB285" t="s">
-        <v>742</v>
-      </c>
       <c r="AC285">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AD285">
-        <v>61.8</v>
+        <v>94.5</v>
       </c>
       <c r="AE285" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="AF285">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AG285">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="AH285">
-        <v>90.5</v>
+        <v>96</v>
       </c>
       <c r="AK285">
         <v>0</v>
@@ -65712,75 +65703,75 @@
         <v>748</v>
       </c>
       <c r="AO285">
-        <v>59.5</v>
+        <v>52.4</v>
       </c>
       <c r="AP285">
-        <v>47.2</v>
+        <v>64.7</v>
       </c>
       <c r="AQ285">
-        <v>49.4</v>
+        <v>60.1</v>
       </c>
       <c r="AR285">
-        <v>46.9</v>
+        <v>60.1</v>
       </c>
       <c r="AS285">
-        <v>40.2</v>
+        <v>34.5</v>
       </c>
       <c r="AT285">
-        <v>58.3</v>
+        <v>54</v>
       </c>
       <c r="AU285">
-        <v>56.2</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="AV285">
-        <v>57.2</v>
+        <v>38.4</v>
       </c>
       <c r="AW285">
-        <v>48.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AX285">
-        <v>51.8</v>
+        <v>47.8</v>
       </c>
       <c r="AY285">
-        <v>42.3</v>
+        <v>71.3</v>
       </c>
       <c r="AZ285">
-        <v>50.6</v>
+        <v>59.8</v>
       </c>
       <c r="BA285">
-        <v>56.1</v>
+        <v>60.6</v>
       </c>
       <c r="BB285">
-        <v>42.1</v>
+        <v>53.1</v>
       </c>
       <c r="BC285">
-        <v>54.1</v>
+        <v>63.5</v>
       </c>
       <c r="BD285">
-        <v>43.1</v>
+        <v>57.9</v>
       </c>
       <c r="BE285">
-        <v>44.6</v>
+        <v>54.7</v>
       </c>
       <c r="BF285">
-        <v>43.7</v>
+        <v>40.6</v>
       </c>
       <c r="BG285">
-        <v>47.6</v>
+        <v>35.9</v>
       </c>
       <c r="BH285">
-        <v>51.6</v>
+        <v>44</v>
       </c>
       <c r="BI285">
-        <v>45.9</v>
+        <v>40.8</v>
       </c>
       <c r="BJ285">
-        <v>43.9</v>
+        <v>49.2</v>
       </c>
       <c r="BK285">
-        <v>51.3</v>
-      </c>
-      <c r="BO285" t="s">
+        <v>46.3</v>
+      </c>
+      <c r="BQ285" t="s">
         <v>749</v>
       </c>
       <c r="BZ285">
@@ -65820,10 +65811,10 @@
         <v>1</v>
       </c>
       <c r="CL285">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="CM285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN285" t="b">
         <v>1</v>
@@ -65837,13 +65828,13 @@
         <v>100</v>
       </c>
       <c r="C286" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D286" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E286" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G286" t="s">
         <v>730</v>
@@ -65852,76 +65843,76 @@
         <v>739</v>
       </c>
       <c r="I286">
-        <v>10830</v>
+        <v>10829</v>
       </c>
       <c r="J286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K286" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N286">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="O286">
-        <v>42.1</v>
+        <v>94.5</v>
       </c>
       <c r="P286" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="Q286">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="R286">
-        <v>6.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="S286" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="T286">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="U286">
-        <v>46</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="V286" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="W286">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="X286">
-        <v>61.8</v>
+        <v>75.8</v>
       </c>
       <c r="Y286" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Z286">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="AA286">
-        <v>24.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="AB286" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AC286">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="AD286">
-        <v>61.8</v>
+        <v>98.3</v>
       </c>
       <c r="AE286" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="AF286">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="AG286">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="AH286">
-        <v>22.7</v>
+        <v>88.3</v>
       </c>
       <c r="AK286">
         <v>0</v>
@@ -65936,67 +65927,67 @@
         <v>748</v>
       </c>
       <c r="AO286">
-        <v>47</v>
+        <v>59.5</v>
       </c>
       <c r="AP286">
-        <v>48.8</v>
+        <v>58.4</v>
       </c>
       <c r="AQ286">
-        <v>52.3</v>
+        <v>33</v>
       </c>
       <c r="AR286">
-        <v>49.1</v>
+        <v>61.6</v>
       </c>
       <c r="AS286">
-        <v>43</v>
+        <v>48.7</v>
       </c>
       <c r="AT286">
-        <v>45.3</v>
+        <v>54</v>
       </c>
       <c r="AU286">
-        <v>47.9</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="AV286">
-        <v>49.7</v>
+        <v>42.2</v>
       </c>
       <c r="AW286">
-        <v>52.5</v>
+        <v>62</v>
       </c>
       <c r="AX286">
-        <v>49.8</v>
+        <v>39.9</v>
       </c>
       <c r="AY286">
-        <v>44.4</v>
+        <v>69.2</v>
       </c>
       <c r="AZ286">
-        <v>52.9</v>
+        <v>57.5</v>
       </c>
       <c r="BA286">
-        <v>49.5</v>
+        <v>25</v>
       </c>
       <c r="BB286">
-        <v>53.1</v>
+        <v>28.9</v>
       </c>
       <c r="BC286">
-        <v>42.7</v>
+        <v>50.3</v>
       </c>
       <c r="BD286">
-        <v>48.7</v>
+        <v>61.6</v>
       </c>
       <c r="BE286">
-        <v>56.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="BF286">
-        <v>60.8</v>
+        <v>67</v>
       </c>
       <c r="BG286">
-        <v>40.9</v>
+        <v>45.9</v>
       </c>
       <c r="BH286">
-        <v>49.7</v>
+        <v>62.8</v>
       </c>
       <c r="BI286">
-        <v>49.4</v>
+        <v>52.8</v>
       </c>
       <c r="BJ286">
         <v>54.5</v>
@@ -66005,28 +65996,28 @@
         <v>56.4</v>
       </c>
       <c r="BZ286">
-        <v>42.4</v>
+        <v>39.8</v>
       </c>
       <c r="CA286">
-        <v>40.6</v>
+        <v>53.8</v>
       </c>
       <c r="CB286">
-        <v>41.3</v>
+        <v>51.8</v>
       </c>
       <c r="CC286">
-        <v>49.8</v>
+        <v>64.7</v>
       </c>
       <c r="CD286">
-        <v>51.9</v>
+        <v>36.5</v>
       </c>
       <c r="CE286">
-        <v>54.6</v>
+        <v>44.4</v>
       </c>
       <c r="CF286">
-        <v>60.9</v>
+        <v>42.9</v>
       </c>
       <c r="CG286">
-        <v>55.9</v>
+        <v>42.5</v>
       </c>
       <c r="CH286" t="s">
         <v>750</v>
@@ -66041,10 +66032,10 @@
         <v>1</v>
       </c>
       <c r="CL286">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="CM286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN286" t="b">
         <v>1</v>
@@ -66058,13 +66049,13 @@
         <v>98</v>
       </c>
       <c r="C287" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D287" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E287" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G287" t="s">
         <v>731</v>
@@ -66073,76 +66064,76 @@
         <v>739</v>
       </c>
       <c r="I287">
-        <v>10629</v>
+        <v>10603</v>
       </c>
       <c r="J287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K287" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N287">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O287">
-        <v>72.59999999999999</v>
+        <v>30.9</v>
       </c>
       <c r="P287" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q287">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="R287">
-        <v>57.9</v>
+        <v>13.6</v>
       </c>
       <c r="S287" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T287">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U287">
-        <v>57.9</v>
+        <v>46</v>
       </c>
       <c r="V287" t="s">
         <v>744</v>
       </c>
       <c r="W287">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="X287">
-        <v>61.8</v>
+        <v>38.2</v>
       </c>
       <c r="Y287" t="s">
         <v>744</v>
       </c>
       <c r="Z287">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AA287">
-        <v>50</v>
+        <v>38.2</v>
       </c>
       <c r="AB287" t="s">
         <v>744</v>
       </c>
       <c r="AC287">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AD287">
-        <v>99.90000000000001</v>
+        <v>18.4</v>
       </c>
       <c r="AE287" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="AF287">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AG287">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="AH287">
-        <v>75.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK287">
         <v>0</v>
@@ -66157,100 +66148,97 @@
         <v>748</v>
       </c>
       <c r="AO287">
-        <v>57.7</v>
+        <v>64</v>
       </c>
       <c r="AP287">
-        <v>44</v>
+        <v>45.6</v>
       </c>
       <c r="AQ287">
-        <v>46.6</v>
+        <v>41.7</v>
       </c>
       <c r="AR287">
-        <v>45.4</v>
+        <v>35.1</v>
       </c>
       <c r="AS287">
-        <v>43</v>
+        <v>47.3</v>
       </c>
       <c r="AT287">
-        <v>60.5</v>
+        <v>69.2</v>
       </c>
       <c r="AU287">
         <v>52.1</v>
       </c>
       <c r="AV287">
-        <v>55.4</v>
+        <v>61</v>
       </c>
       <c r="AW287">
-        <v>50.6</v>
+        <v>56.3</v>
       </c>
       <c r="AX287">
-        <v>37.9</v>
+        <v>41.9</v>
       </c>
       <c r="AY287">
-        <v>46.5</v>
+        <v>40.3</v>
       </c>
       <c r="AZ287">
-        <v>50.6</v>
+        <v>46</v>
       </c>
       <c r="BA287">
         <v>45</v>
       </c>
       <c r="BB287">
+        <v>39.9</v>
+      </c>
+      <c r="BC287">
         <v>46.5</v>
       </c>
-      <c r="BC287">
-        <v>48.4</v>
-      </c>
       <c r="BD287">
-        <v>43.1</v>
+        <v>30.2</v>
       </c>
       <c r="BE287">
-        <v>46.6</v>
+        <v>34.5</v>
       </c>
       <c r="BF287">
-        <v>51.5</v>
+        <v>46.8</v>
       </c>
       <c r="BG287">
-        <v>49.3</v>
+        <v>62.6</v>
       </c>
       <c r="BH287">
         <v>47.8</v>
       </c>
       <c r="BI287">
-        <v>52.8</v>
+        <v>64.8</v>
       </c>
       <c r="BJ287">
-        <v>47.4</v>
+        <v>38.6</v>
       </c>
       <c r="BK287">
-        <v>43</v>
-      </c>
-      <c r="BO287" t="s">
-        <v>749</v>
+        <v>48</v>
       </c>
       <c r="BZ287">
-        <v>55.6</v>
+        <v>42.4</v>
       </c>
       <c r="CA287">
-        <v>57.1</v>
+        <v>40.6</v>
       </c>
       <c r="CB287">
-        <v>36</v>
+        <v>41.3</v>
       </c>
       <c r="CC287">
-        <v>41.3</v>
+        <v>49.8</v>
       </c>
       <c r="CD287">
-        <v>45.3</v>
+        <v>51.9</v>
       </c>
       <c r="CE287">
-        <v>58.7</v>
+        <v>54.6</v>
       </c>
       <c r="CF287">
-        <v>49.6</v>
+        <v>60.9</v>
       </c>
       <c r="CG287">
-        <v>61.6</v>
+        <v>55.9</v>
       </c>
       <c r="CH287" t="s">
         <v>750</v>
@@ -66265,10 +66253,10 @@
         <v>1</v>
       </c>
       <c r="CL287">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="CM287">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CN287" t="b">
         <v>1</v>
@@ -66279,16 +66267,16 @@
         <v>92</v>
       </c>
       <c r="B288" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C288" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D288" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E288" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G288" t="s">
         <v>732</v>
@@ -66297,79 +66285,79 @@
         <v>739</v>
       </c>
       <c r="I288">
-        <v>11008</v>
+        <v>10929</v>
       </c>
       <c r="J288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K288" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N288">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O288">
-        <v>50</v>
+        <v>98.3</v>
       </c>
       <c r="P288" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="Q288">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="R288">
-        <v>72.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="S288" t="s">
+        <v>740</v>
+      </c>
+      <c r="T288">
+        <v>66</v>
+      </c>
+      <c r="U288">
+        <v>94.5</v>
+      </c>
+      <c r="V288" t="s">
+        <v>741</v>
+      </c>
+      <c r="W288">
+        <v>61</v>
+      </c>
+      <c r="X288">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="Y288" t="s">
         <v>742</v>
       </c>
-      <c r="T288">
-        <v>52</v>
-      </c>
-      <c r="U288">
-        <v>57.9</v>
-      </c>
-      <c r="V288" t="s">
-        <v>744</v>
-      </c>
-      <c r="W288">
-        <v>42</v>
-      </c>
-      <c r="X288">
-        <v>21.2</v>
-      </c>
-      <c r="Y288" t="s">
-        <v>743</v>
-      </c>
       <c r="Z288">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="AA288">
-        <v>61.8</v>
+        <v>97.7</v>
       </c>
       <c r="AB288" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="AC288">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AD288">
-        <v>61.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="AE288" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AF288">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AG288">
+        <v>130</v>
+      </c>
+      <c r="AH288">
         <v>97</v>
       </c>
-      <c r="AH288">
-        <v>42.5</v>
-      </c>
       <c r="AK288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL288" t="s">
         <v>741</v>
@@ -66381,100 +66369,103 @@
         <v>748</v>
       </c>
       <c r="AO288">
-        <v>51.5</v>
+        <v>20.2</v>
       </c>
       <c r="AP288">
-        <v>53.6</v>
+        <v>28.9</v>
       </c>
       <c r="AQ288">
-        <v>55.2</v>
+        <v>31.1</v>
       </c>
       <c r="AR288">
-        <v>47.6</v>
+        <v>36.6</v>
       </c>
       <c r="AS288">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AT288">
+        <v>25.7</v>
+      </c>
+      <c r="AU288">
+        <v>27.1</v>
+      </c>
+      <c r="AV288">
+        <v>29</v>
+      </c>
+      <c r="AW288">
+        <v>33.6</v>
+      </c>
+      <c r="AX288">
+        <v>31.9</v>
+      </c>
+      <c r="AY288">
+        <v>32</v>
+      </c>
+      <c r="AZ288">
+        <v>32.2</v>
+      </c>
+      <c r="BA288">
+        <v>29.4</v>
+      </c>
+      <c r="BB288">
+        <v>44.3</v>
+      </c>
+      <c r="BC288">
+        <v>38.9</v>
+      </c>
+      <c r="BD288">
+        <v>39.4</v>
+      </c>
+      <c r="BE288">
+        <v>36.5</v>
+      </c>
+      <c r="BF288">
+        <v>48.4</v>
+      </c>
+      <c r="BG288">
+        <v>39.3</v>
+      </c>
+      <c r="BH288">
+        <v>55.3</v>
+      </c>
+      <c r="BI288">
+        <v>54.5</v>
+      </c>
+      <c r="BJ288">
+        <v>52.7</v>
+      </c>
+      <c r="BK288">
+        <v>49.7</v>
+      </c>
+      <c r="BM288" t="s">
+        <v>749</v>
+      </c>
+      <c r="BZ288">
+        <v>55.6</v>
+      </c>
+      <c r="CA288">
+        <v>57.1</v>
+      </c>
+      <c r="CB288">
+        <v>36</v>
+      </c>
+      <c r="CC288">
+        <v>41.3</v>
+      </c>
+      <c r="CD288">
+        <v>45.3</v>
+      </c>
+      <c r="CE288">
+        <v>58.7</v>
+      </c>
+      <c r="CF288">
         <v>49.6</v>
       </c>
-      <c r="AU288">
-        <v>54.1</v>
-      </c>
-      <c r="AV288">
-        <v>49.7</v>
-      </c>
-      <c r="AW288">
-        <v>54.4</v>
-      </c>
-      <c r="AX288">
-        <v>55.8</v>
-      </c>
-      <c r="AY288">
-        <v>48.5</v>
-      </c>
-      <c r="AZ288">
-        <v>55.2</v>
-      </c>
-      <c r="BA288">
-        <v>56.1</v>
-      </c>
-      <c r="BB288">
-        <v>50.9</v>
-      </c>
-      <c r="BC288">
-        <v>48.4</v>
-      </c>
-      <c r="BD288">
-        <v>48.7</v>
-      </c>
-      <c r="BE288">
-        <v>46.6</v>
-      </c>
-      <c r="BF288">
-        <v>54.6</v>
-      </c>
-      <c r="BG288">
-        <v>47.6</v>
-      </c>
-      <c r="BH288">
-        <v>51.6</v>
-      </c>
-      <c r="BI288">
-        <v>47.6</v>
-      </c>
-      <c r="BJ288">
-        <v>61.5</v>
-      </c>
-      <c r="BK288">
-        <v>51.3</v>
-      </c>
-      <c r="BZ288">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="CA288">
-        <v>50.5</v>
-      </c>
-      <c r="CB288">
-        <v>65</v>
-      </c>
-      <c r="CC288">
-        <v>43.4</v>
-      </c>
-      <c r="CD288">
-        <v>56.3</v>
-      </c>
-      <c r="CE288">
-        <v>71</v>
-      </c>
-      <c r="CF288">
-        <v>45.1</v>
-      </c>
       <c r="CG288">
-        <v>59.7</v>
+        <v>61.6</v>
       </c>
       <c r="CH288" t="s">
-        <v>750</v>
+        <v>92</v>
       </c>
       <c r="CI288" t="s">
         <v>751</v>
@@ -66486,10 +66477,10 @@
         <v>1</v>
       </c>
       <c r="CL288">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="CM288">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CN288" t="b">
         <v>1</v>
@@ -66500,16 +66491,16 @@
         <v>92</v>
       </c>
       <c r="B289" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C289" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D289" t="s">
         <v>124</v>
       </c>
       <c r="E289" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G289" t="s">
         <v>733</v>
@@ -66518,79 +66509,79 @@
         <v>739</v>
       </c>
       <c r="I289">
-        <v>10103</v>
+        <v>10610</v>
       </c>
       <c r="J289">
         <v>2</v>
       </c>
       <c r="K289" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N289">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="O289">
-        <v>88.5</v>
+        <v>97.7</v>
       </c>
       <c r="P289" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="Q289">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="R289">
-        <v>72.59999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="S289" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="T289">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="U289">
-        <v>30.9</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="V289" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="W289">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="X289">
-        <v>61.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Y289" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="Z289">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="AA289">
-        <v>24.2</v>
+        <v>93.3</v>
       </c>
       <c r="AB289" t="s">
+        <v>741</v>
+      </c>
+      <c r="AC289">
+        <v>44</v>
+      </c>
+      <c r="AD289">
+        <v>27.4</v>
+      </c>
+      <c r="AE289" t="s">
         <v>743</v>
       </c>
-      <c r="AC289">
-        <v>47</v>
-      </c>
-      <c r="AD289">
-        <v>38.2</v>
-      </c>
-      <c r="AE289" t="s">
-        <v>744</v>
-      </c>
       <c r="AF289">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AG289">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="AH289">
-        <v>42.5</v>
+        <v>92.5</v>
       </c>
       <c r="AK289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL289" t="s">
         <v>741</v>
@@ -66602,97 +66593,103 @@
         <v>748</v>
       </c>
       <c r="AO289">
-        <v>37.2</v>
+        <v>40.8</v>
       </c>
       <c r="AP289">
-        <v>52.8</v>
+        <v>60.8</v>
       </c>
       <c r="AQ289">
-        <v>31.1</v>
+        <v>62</v>
       </c>
       <c r="AR289">
-        <v>49.1</v>
+        <v>63</v>
       </c>
       <c r="AS289">
-        <v>45.5</v>
+        <v>39.1</v>
       </c>
       <c r="AT289">
-        <v>43.1</v>
+        <v>56.1</v>
       </c>
       <c r="AU289">
         <v>43.7</v>
       </c>
       <c r="AV289">
-        <v>34.7</v>
+        <v>30.9</v>
       </c>
       <c r="AW289">
         <v>48.7</v>
       </c>
       <c r="AX289">
-        <v>51.8</v>
+        <v>73.7</v>
       </c>
       <c r="AY289">
-        <v>56.8</v>
+        <v>54.7</v>
       </c>
       <c r="AZ289">
-        <v>52.9</v>
+        <v>69</v>
       </c>
       <c r="BA289">
-        <v>22.8</v>
+        <v>49.5</v>
       </c>
       <c r="BB289">
-        <v>31.1</v>
+        <v>59.7</v>
       </c>
       <c r="BC289">
-        <v>50.3</v>
+        <v>46.5</v>
       </c>
       <c r="BD289">
+        <v>69</v>
+      </c>
+      <c r="BE289">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="BF289">
+        <v>59.2</v>
+      </c>
+      <c r="BG289">
+        <v>32.6</v>
+      </c>
+      <c r="BH289">
+        <v>60.9</v>
+      </c>
+      <c r="BI289">
+        <v>30.4</v>
+      </c>
+      <c r="BJ289">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="BK289">
+        <v>68</v>
+      </c>
+      <c r="BN289" t="s">
+        <v>749</v>
+      </c>
+      <c r="BQ289" t="s">
+        <v>749</v>
+      </c>
+      <c r="BZ289">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="CA289">
         <v>50.5</v>
       </c>
-      <c r="BE289">
-        <v>46.6</v>
-      </c>
-      <c r="BF289">
-        <v>56.1</v>
-      </c>
-      <c r="BG289">
-        <v>55.9</v>
-      </c>
-      <c r="BH289">
-        <v>51.6</v>
-      </c>
-      <c r="BI289">
-        <v>49.4</v>
-      </c>
-      <c r="BJ289">
-        <v>56.2</v>
-      </c>
-      <c r="BK289">
-        <v>44.7</v>
-      </c>
-      <c r="BZ289">
-        <v>39.8</v>
-      </c>
-      <c r="CA289">
-        <v>43.9</v>
-      </c>
       <c r="CB289">
-        <v>41.3</v>
+        <v>65</v>
       </c>
       <c r="CC289">
-        <v>41.3</v>
+        <v>43.4</v>
       </c>
       <c r="CD289">
-        <v>40.9</v>
+        <v>56.3</v>
       </c>
       <c r="CE289">
-        <v>68.90000000000001</v>
+        <v>71</v>
       </c>
       <c r="CF289">
-        <v>40.6</v>
+        <v>45.1</v>
       </c>
       <c r="CG289">
-        <v>65.40000000000001</v>
+        <v>59.7</v>
       </c>
       <c r="CH289" t="s">
         <v>750</v>
@@ -66707,10 +66704,10 @@
         <v>1</v>
       </c>
       <c r="CL289">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="CM289">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CN289" t="b">
         <v>1</v>
@@ -66721,10 +66718,10 @@
         <v>92</v>
       </c>
       <c r="B290" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C290" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D290" t="s">
         <v>124</v>
@@ -66732,9 +66729,6 @@
       <c r="E290" t="s">
         <v>408</v>
       </c>
-      <c r="F290" t="s">
-        <v>444</v>
-      </c>
       <c r="G290" t="s">
         <v>734</v>
       </c>
@@ -66742,7 +66736,7 @@
         <v>739</v>
       </c>
       <c r="I290">
-        <v>10507</v>
+        <v>10830</v>
       </c>
       <c r="J290">
         <v>2</v>
@@ -66751,67 +66745,67 @@
         <v>408</v>
       </c>
       <c r="N290">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O290">
-        <v>91.90000000000001</v>
+        <v>42.1</v>
       </c>
       <c r="P290" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="Q290">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="R290">
-        <v>84.09999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="S290" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="T290">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="U290">
-        <v>72.59999999999999</v>
+        <v>46</v>
       </c>
       <c r="V290" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="W290">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="X290">
-        <v>93.3</v>
+        <v>61.8</v>
       </c>
       <c r="Y290" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="Z290">
+        <v>43</v>
+      </c>
+      <c r="AA290">
+        <v>24.2</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>743</v>
+      </c>
+      <c r="AC290">
         <v>53</v>
       </c>
-      <c r="AA290">
+      <c r="AD290">
         <v>61.8</v>
-      </c>
-      <c r="AB290" t="s">
-        <v>744</v>
-      </c>
-      <c r="AC290">
-        <v>50</v>
-      </c>
-      <c r="AD290">
-        <v>50</v>
       </c>
       <c r="AE290" t="s">
         <v>744</v>
       </c>
       <c r="AF290">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="AG290">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="AH290">
-        <v>75.5</v>
+        <v>22.7</v>
       </c>
       <c r="AK290">
         <v>0</v>
@@ -66826,37 +66820,37 @@
         <v>748</v>
       </c>
       <c r="AO290">
+        <v>47</v>
+      </c>
+      <c r="AP290">
         <v>48.8</v>
       </c>
-      <c r="AP290">
-        <v>48</v>
-      </c>
       <c r="AQ290">
-        <v>48.5</v>
+        <v>52.3</v>
       </c>
       <c r="AR290">
-        <v>46.1</v>
+        <v>49.1</v>
       </c>
       <c r="AS290">
-        <v>49.1</v>
+        <v>43</v>
       </c>
       <c r="AT290">
-        <v>43.1</v>
+        <v>45.3</v>
       </c>
       <c r="AU290">
-        <v>52.1</v>
+        <v>47.9</v>
       </c>
       <c r="AV290">
-        <v>51.6</v>
+        <v>49.7</v>
       </c>
       <c r="AW290">
-        <v>46.8</v>
+        <v>52.5</v>
       </c>
       <c r="AX290">
-        <v>55.8</v>
+        <v>49.8</v>
       </c>
       <c r="AY290">
-        <v>42.3</v>
+        <v>44.4</v>
       </c>
       <c r="AZ290">
         <v>52.9</v>
@@ -66865,58 +66859,58 @@
         <v>49.5</v>
       </c>
       <c r="BB290">
-        <v>44.3</v>
+        <v>53.1</v>
       </c>
       <c r="BC290">
-        <v>50.3</v>
+        <v>42.7</v>
       </c>
       <c r="BD290">
+        <v>48.7</v>
+      </c>
+      <c r="BE290">
+        <v>56.7</v>
+      </c>
+      <c r="BF290">
+        <v>60.8</v>
+      </c>
+      <c r="BG290">
+        <v>40.9</v>
+      </c>
+      <c r="BH290">
+        <v>49.7</v>
+      </c>
+      <c r="BI290">
+        <v>49.4</v>
+      </c>
+      <c r="BJ290">
+        <v>54.5</v>
+      </c>
+      <c r="BK290">
+        <v>56.4</v>
+      </c>
+      <c r="BZ290">
+        <v>42.4</v>
+      </c>
+      <c r="CA290">
+        <v>40.6</v>
+      </c>
+      <c r="CB290">
         <v>41.3</v>
       </c>
-      <c r="BE290">
-        <v>48.6</v>
-      </c>
-      <c r="BF290">
-        <v>59.2</v>
-      </c>
-      <c r="BG290">
-        <v>54.3</v>
-      </c>
-      <c r="BH290">
+      <c r="CC290">
+        <v>49.8</v>
+      </c>
+      <c r="CD290">
+        <v>51.9</v>
+      </c>
+      <c r="CE290">
+        <v>54.6</v>
+      </c>
+      <c r="CF290">
         <v>60.9</v>
       </c>
-      <c r="BI290">
-        <v>56.2</v>
-      </c>
-      <c r="BJ290">
-        <v>66.8</v>
-      </c>
-      <c r="BK290">
-        <v>59.7</v>
-      </c>
-      <c r="BZ290">
-        <v>39.8</v>
-      </c>
-      <c r="CA290">
-        <v>53.8</v>
-      </c>
-      <c r="CB290">
-        <v>51.8</v>
-      </c>
-      <c r="CC290">
-        <v>64.7</v>
-      </c>
-      <c r="CD290">
-        <v>36.5</v>
-      </c>
-      <c r="CE290">
-        <v>44.4</v>
-      </c>
-      <c r="CF290">
-        <v>42.9</v>
-      </c>
       <c r="CG290">
-        <v>42.5</v>
+        <v>55.9</v>
       </c>
       <c r="CH290" t="s">
         <v>750</v>
@@ -66931,10 +66925,10 @@
         <v>1</v>
       </c>
       <c r="CL290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM290">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CN290" t="b">
         <v>1</v>
@@ -66948,7 +66942,7 @@
         <v>93</v>
       </c>
       <c r="C291" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D291" t="s">
         <v>124</v>
@@ -66963,7 +66957,7 @@
         <v>739</v>
       </c>
       <c r="I291">
-        <v>10104</v>
+        <v>10103</v>
       </c>
       <c r="J291">
         <v>2</v>
@@ -66972,31 +66966,31 @@
         <v>408</v>
       </c>
       <c r="N291">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="O291">
-        <v>65.5</v>
+        <v>88.5</v>
       </c>
       <c r="P291" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q291">
+        <v>56</v>
+      </c>
+      <c r="R291">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="S291" t="s">
+        <v>742</v>
+      </c>
+      <c r="T291">
+        <v>45</v>
+      </c>
+      <c r="U291">
+        <v>30.9</v>
+      </c>
+      <c r="V291" t="s">
         <v>744</v>
-      </c>
-      <c r="Q291">
-        <v>64</v>
-      </c>
-      <c r="R291">
-        <v>91.90000000000001</v>
-      </c>
-      <c r="S291" t="s">
-        <v>741</v>
-      </c>
-      <c r="T291">
-        <v>56</v>
-      </c>
-      <c r="U291">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="V291" t="s">
-        <v>742</v>
       </c>
       <c r="W291">
         <v>53</v>
@@ -67008,13 +67002,13 @@
         <v>744</v>
       </c>
       <c r="Z291">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA291">
-        <v>50</v>
+        <v>24.2</v>
       </c>
       <c r="AB291" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AC291">
         <v>47</v>
@@ -67026,16 +67020,16 @@
         <v>744</v>
       </c>
       <c r="AF291">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG291">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AH291">
-        <v>57.5</v>
+        <v>42.5</v>
       </c>
       <c r="AK291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL291" t="s">
         <v>741</v>
@@ -67047,97 +67041,97 @@
         <v>748</v>
       </c>
       <c r="AO291">
-        <v>66.7</v>
+        <v>37.2</v>
       </c>
       <c r="AP291">
-        <v>72.7</v>
+        <v>52.8</v>
       </c>
       <c r="AQ291">
-        <v>52.3</v>
+        <v>31.1</v>
       </c>
       <c r="AR291">
         <v>49.1</v>
       </c>
       <c r="AS291">
-        <v>53.6</v>
+        <v>45.5</v>
       </c>
       <c r="AT291">
-        <v>54</v>
+        <v>43.1</v>
       </c>
       <c r="AU291">
-        <v>66.59999999999999</v>
+        <v>43.7</v>
       </c>
       <c r="AV291">
-        <v>66.59999999999999</v>
+        <v>34.7</v>
       </c>
       <c r="AW291">
-        <v>75.2</v>
+        <v>48.7</v>
       </c>
       <c r="AX291">
-        <v>73.7</v>
+        <v>51.8</v>
       </c>
       <c r="AY291">
         <v>56.8</v>
       </c>
       <c r="AZ291">
-        <v>64.40000000000001</v>
+        <v>52.9</v>
       </c>
       <c r="BA291">
-        <v>42.8</v>
+        <v>22.8</v>
       </c>
       <c r="BB291">
-        <v>48.7</v>
+        <v>31.1</v>
       </c>
       <c r="BC291">
-        <v>42.7</v>
+        <v>50.3</v>
       </c>
       <c r="BD291">
-        <v>46.8</v>
+        <v>50.5</v>
       </c>
       <c r="BE291">
-        <v>58.8</v>
+        <v>46.6</v>
       </c>
       <c r="BF291">
-        <v>71.59999999999999</v>
+        <v>56.1</v>
       </c>
       <c r="BG291">
-        <v>49.3</v>
+        <v>55.9</v>
       </c>
       <c r="BH291">
-        <v>70.3</v>
+        <v>51.6</v>
       </c>
       <c r="BI291">
-        <v>61.4</v>
+        <v>49.4</v>
       </c>
       <c r="BJ291">
-        <v>59.7</v>
+        <v>56.2</v>
       </c>
       <c r="BK291">
-        <v>58</v>
+        <v>44.7</v>
       </c>
       <c r="BZ291">
         <v>39.8</v>
       </c>
       <c r="CA291">
-        <v>53.8</v>
+        <v>43.9</v>
       </c>
       <c r="CB291">
-        <v>51.8</v>
+        <v>41.3</v>
       </c>
       <c r="CC291">
-        <v>64.7</v>
+        <v>41.3</v>
       </c>
       <c r="CD291">
-        <v>36.5</v>
+        <v>40.9</v>
       </c>
       <c r="CE291">
-        <v>44.4</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="CF291">
-        <v>42.9</v>
+        <v>40.6</v>
       </c>
       <c r="CG291">
-        <v>42.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="CH291" t="s">
         <v>750</v>
@@ -67152,10 +67146,10 @@
         <v>1</v>
       </c>
       <c r="CL291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM291">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN291" t="b">
         <v>1</v>
@@ -67166,10 +67160,10 @@
         <v>92</v>
       </c>
       <c r="B292" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C292" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D292" t="s">
         <v>124</v>
@@ -67184,7 +67178,7 @@
         <v>739</v>
       </c>
       <c r="I292">
-        <v>10509</v>
+        <v>10411</v>
       </c>
       <c r="J292">
         <v>2</v>
@@ -67193,13 +67187,13 @@
         <v>407</v>
       </c>
       <c r="N292">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O292">
-        <v>50</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="P292" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="Q292">
         <v>60</v>
@@ -67220,22 +67214,22 @@
         <v>744</v>
       </c>
       <c r="W292">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="X292">
-        <v>61.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="Y292" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Z292">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA292">
-        <v>9.699999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="AB292" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AC292">
         <v>44</v>
@@ -67247,13 +67241,13 @@
         <v>743</v>
       </c>
       <c r="AF292">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AG292">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AH292">
-        <v>30.8</v>
+        <v>52.4</v>
       </c>
       <c r="AK292">
         <v>0</v>
@@ -67268,97 +67262,103 @@
         <v>748</v>
       </c>
       <c r="AO292">
-        <v>50.6</v>
+        <v>84.5</v>
       </c>
       <c r="AP292">
-        <v>52</v>
+        <v>45.6</v>
       </c>
       <c r="AQ292">
-        <v>56.2</v>
+        <v>58.1</v>
       </c>
       <c r="AR292">
-        <v>40.3</v>
+        <v>49.8</v>
       </c>
       <c r="AS292">
-        <v>38.4</v>
+        <v>37</v>
       </c>
       <c r="AT292">
-        <v>62.7</v>
+        <v>73.5</v>
       </c>
       <c r="AU292">
-        <v>52.1</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="AV292">
-        <v>38.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AW292">
-        <v>46.8</v>
+        <v>52.5</v>
       </c>
       <c r="AX292">
-        <v>67.7</v>
+        <v>49.8</v>
       </c>
       <c r="AY292">
-        <v>40.3</v>
+        <v>36.1</v>
       </c>
       <c r="AZ292">
-        <v>62.1</v>
+        <v>59.8</v>
       </c>
       <c r="BA292">
         <v>58.4</v>
       </c>
       <c r="BB292">
-        <v>44.3</v>
+        <v>50.9</v>
       </c>
       <c r="BC292">
-        <v>37</v>
+        <v>48.4</v>
       </c>
       <c r="BD292">
-        <v>41.3</v>
+        <v>39.4</v>
       </c>
       <c r="BE292">
-        <v>46.6</v>
+        <v>62.8</v>
       </c>
       <c r="BF292">
-        <v>49.9</v>
+        <v>43.7</v>
       </c>
       <c r="BG292">
         <v>37.6</v>
       </c>
       <c r="BH292">
-        <v>42.2</v>
+        <v>36.5</v>
       </c>
       <c r="BI292">
-        <v>49.4</v>
+        <v>54.5</v>
       </c>
       <c r="BJ292">
         <v>49.2</v>
       </c>
       <c r="BK292">
-        <v>38</v>
+        <v>36.3</v>
+      </c>
+      <c r="BL292" t="s">
+        <v>749</v>
+      </c>
+      <c r="BO292" t="s">
+        <v>749</v>
       </c>
       <c r="BZ292">
-        <v>55.6</v>
+        <v>39.8</v>
       </c>
       <c r="CA292">
-        <v>57.1</v>
+        <v>53.8</v>
       </c>
       <c r="CB292">
-        <v>36</v>
+        <v>51.8</v>
       </c>
       <c r="CC292">
-        <v>41.3</v>
+        <v>64.7</v>
       </c>
       <c r="CD292">
-        <v>45.3</v>
+        <v>36.5</v>
       </c>
       <c r="CE292">
-        <v>58.7</v>
+        <v>44.4</v>
       </c>
       <c r="CF292">
-        <v>49.6</v>
+        <v>42.9</v>
       </c>
       <c r="CG292">
-        <v>61.6</v>
+        <v>42.5</v>
       </c>
       <c r="CH292" t="s">
         <v>750</v>
@@ -67373,10 +67373,10 @@
         <v>1</v>
       </c>
       <c r="CL292">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="CM292">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CN292" t="b">
         <v>1</v>
@@ -67603,7 +67603,7 @@
         <v>0</v>
       </c>
       <c r="CM293">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CN293" t="b">
         <v>1</v>
@@ -67827,7 +67827,7 @@
         <v>0</v>
       </c>
       <c r="CM294">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CN294" t="b">
         <v>1</v>
